--- a/medicine/Enfance/Fantômette_et_la_Lampe_merveilleuse/Fantômette_et_la_Lampe_merveilleuse.xlsx
+++ b/medicine/Enfance/Fantômette_et_la_Lampe_merveilleuse/Fantômette_et_la_Lampe_merveilleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Lampe_merveilleuse</t>
+          <t>Fantômette_et_la_Lampe_merveilleuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette et la Lampe merveilleuse est le 14e roman de la série humoristique Fantômette créée par Georges Chaulet, publié en 1969 dans la Bibliothèque rose des éditions Hachette et comportant 184 pages. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Lampe_merveilleuse</t>
+          <t>Fantômette_et_la_Lampe_merveilleuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette et la Lampe merveilleuse a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Lampe_merveilleuse</t>
+          <t>Fantômette_et_la_Lampe_merveilleuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Françoise Dupont / Fantômette : héroïne du roman.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Lampe_merveilleuse</t>
+          <t>Fantômette_et_la_Lampe_merveilleuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1969 en langue française.
 Mise en place de l'intrigue
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_et_la_Lampe_merveilleuse</t>
+          <t>Fantômette_et_la_Lampe_merveilleuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans le roman C'est quelqu'un, Fantômette ! (1977), on retrouvera une organisation appelée « FILOU », acronyme du « Front Indépendant Libre des Organisations Unies » (parti politique breton).
 On retrouvera M. Coquetier dans un roman ultérieur : Fantômette contre la Main Jaune.
